--- a/excel_classification/result/[패스트몰]파인커스텀.xlsx
+++ b/excel_classification/result/[패스트몰]파인커스텀.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,10 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,169 +441,175 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>발송요청내역 [총2건]2023-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>주문번호</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>상품번호</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>상품코드</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>바코드</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>주문자</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>수령인</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>전화번호</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>핸드폰</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>상품명</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>옵션</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>판매가격</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>공급가격</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>옵션가격</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>옵션공급가격</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>총공급가격</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>총판매가격</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>배송비구분</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>배송비</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U3" s="1" t="inlineStr">
         <is>
           <t>무료배송금액</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>실 배송비</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>주문일</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t>주소</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>주문시요구사항</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>A16410737823129687</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>891983</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>G0000543494</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>이로원</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>이로원</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>010-6378-4101</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>보브힘 게임 패드</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">구성 선택 : 1개 단품
 각인 타입 선택 : 각인 유
@@ -604,147 +617,146 @@
 </t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>15800</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N4" t="n">
         <v>13430</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q4" t="n">
         <v>13430</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R4" t="n">
         <v>15800</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>선불</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="T4" t="n">
         <v>3000</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U4" t="n">
         <v>30000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V4" t="n">
         <v>3000</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>2022-01-02 11:46:36</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>경기 양주시</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>010-8681-3652</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>A16410730806648512</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>804635</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>G0000548856</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>백태겸</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>백태겸</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>010-6325-3409</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">보브힘 온습도계 </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M5" t="n">
         <v>55000</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>48400</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q5" t="n">
         <v>48400</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R5" t="n">
         <v>55000</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>2022-01-01 11:47:21</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>충남 논산시</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_classification/result/[패스트몰]파인커스텀.xlsx
+++ b/excel_classification/result/[패스트몰]파인커스텀.xlsx
@@ -432,184 +432,208 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="40" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="40" customWidth="1" min="23" max="23"/>
+    <col width="40" customWidth="1" min="24" max="24"/>
+    <col width="13" customWidth="1" min="25" max="25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>발송요청내역 [총2건]2023-04-03</t>
+          <t>발송요청내역 [총2건]2023-04-04</t>
         </is>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>주문번호</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>주문번호</t>
+          <t>상품번호</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>상품번호</t>
+          <t>상품코드</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>상품코드</t>
+          <t>바코드</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>바코드</t>
+          <t>주문자</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>주문자</t>
+          <t>수령인</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>수령인</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>핸드폰</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>핸드폰</t>
+          <t>상품명</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>상품명</t>
+          <t>옵션</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>옵션</t>
+          <t>수량</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>수량</t>
+          <t>판매가격</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>판매가격</t>
+          <t>공급가격</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>공급가격</t>
+          <t>옵션가격</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>옵션가격</t>
+          <t>옵션공급가격</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>옵션공급가격</t>
+          <t>총공급가격</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>총공급가격</t>
+          <t>총판매가격</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>총판매가격</t>
+          <t>배송비구분</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>배송비구분</t>
+          <t>배송비</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>배송비</t>
+          <t>무료배송금액</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>무료배송금액</t>
+          <t>실 배송비</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>실 배송비</t>
+          <t>주문일</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>주문일</t>
+          <t>주소</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
-        <is>
-          <t>주소</t>
-        </is>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>주문시요구사항</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>42</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A16410737823129687</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A16410737823129687</t>
+          <t>891983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>891983</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>G0000543494</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>이로원</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>이로원</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>이로원</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>010-6378-4101</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>010-6378-4101</t>
+          <t>보브힘 게임 패드</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>보브힘 게임 패드</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">구성 선택 : 1개 단품
 각인 타입 선택 : 각인 유
@@ -617,121 +641,121 @@
 </t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>15800</v>
       </c>
       <c r="M4" t="n">
-        <v>15800</v>
+        <v>13430</v>
       </c>
       <c r="N4" t="n">
-        <v>13430</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>13430</v>
       </c>
       <c r="Q4" t="n">
-        <v>13430</v>
-      </c>
-      <c r="R4" t="n">
         <v>15800</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>선불</t>
         </is>
       </c>
+      <c r="S4" t="n">
+        <v>3000</v>
+      </c>
       <c r="T4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="U4" t="n">
         <v>3000</v>
       </c>
-      <c r="U4" t="n">
-        <v>30000</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3000</v>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2022-01-02 11:46:36</t>
+        </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2022-01-02 11:46:36</t>
+          <t>경기 양주시</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
-        <is>
-          <t>경기 양주시</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
         <is>
           <t>010-8681-3652</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>43</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A16410730806648512</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A16410730806648512</t>
+          <t>804635</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>804635</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>G0000548856</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>백태겸</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>백태겸</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>백태겸</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>010-6325-3409</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>010-6325-3409</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t xml:space="preserve">보브힘 온습도계 </t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>55000</v>
       </c>
       <c r="M5" t="n">
-        <v>55000</v>
+        <v>48400</v>
       </c>
       <c r="N5" t="n">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>48400</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>55000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>48400</v>
-      </c>
-      <c r="R5" t="n">
-        <v>55000</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -739,15 +763,12 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2022-01-01 11:47:21</t>
+        </is>
       </c>
       <c r="W5" t="inlineStr">
-        <is>
-          <t>2022-01-01 11:47:21</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
         <is>
           <t>충남 논산시</t>
         </is>

--- a/excel_classification/result/[패스트몰]파인커스텀.xlsx
+++ b/excel_classification/result/[패스트몰]파인커스텀.xlsx
@@ -33,12 +33,22 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -59,13 +69,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,14 +456,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="8" max="8"/>
     <col width="40" customWidth="1" min="9" max="9"/>
     <col width="40" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
@@ -461,7 +477,7 @@
     <col width="13" customWidth="1" min="19" max="19"/>
     <col width="13" customWidth="1" min="20" max="20"/>
     <col width="13" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="26" customWidth="1" min="22" max="22"/>
     <col width="40" customWidth="1" min="23" max="23"/>
     <col width="40" customWidth="1" min="24" max="24"/>
     <col width="13" customWidth="1" min="25" max="25"/>
@@ -476,164 +492,166 @@
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>주문번호</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>상품번호</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>상품코드</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>바코드</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>주문자</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>수령인</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>전화번호</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>핸드폰</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>상품명</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>옵션</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>판매가격</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>공급가격</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>옵션가격</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>옵션공급가격</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>총공급가격</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>총판매가격</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>배송비구분</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>배송비</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>무료배송금액</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>실 배송비</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>주문일</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>주소</t>
         </is>
       </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>주문시요구사항</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>A16410737823129687</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>891983</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>G0000543494</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>이로원</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>이로원</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>010-6378-4101</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>보브힘 게임 패드</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">구성 선택 : 1개 단품
 각인 타입 선택 : 각인 유
@@ -641,138 +659,142 @@
 </t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>15800</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4" t="n">
         <v>13430</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="4" t="n">
         <v>13430</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="4" t="n">
         <v>15800</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>선불</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="4" t="n">
         <v>3000</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="4" t="n">
         <v>3000</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>2022-01-02 11:46:36</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>경기 양주시</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>010-8681-3652</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>A16410730806648512</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>804635</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>G0000548856</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>백태겸</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>백태겸</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>010-6325-3409</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">보브힘 온습도계 </t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4" t="n">
         <v>55000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4" t="n">
         <v>48400</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="4" t="n">
         <v>48400</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="4" t="n">
         <v>55000</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>2022-01-01 11:47:21</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>충남 논산시</t>
         </is>
       </c>
+      <c r="X5" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
